--- a/output/fit_clients/fit_round_472.xlsx
+++ b/output/fit_clients/fit_round_472.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1592589394.135057</v>
+        <v>2237770062.127324</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08487822637077394</v>
+        <v>0.07735104445334888</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03753289758953095</v>
+        <v>0.0417405505106407</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>796294637.9300562</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2191525598.072269</v>
+        <v>2008115481.58174</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1151860597362777</v>
+        <v>0.1263018974279412</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03139094250427071</v>
+        <v>0.04709223973732792</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1095762868.777651</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4396746068.154329</v>
+        <v>4898275156.888281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1559538607846514</v>
+        <v>0.1368168223579445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03762549698488925</v>
+        <v>0.02871759130579819</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>170</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2198373076.385027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4082788339.816047</v>
+        <v>2711411088.747274</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07979479801507712</v>
+        <v>0.09935074045047312</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04247323303155601</v>
+        <v>0.04333330841280603</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>174</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2041394168.166376</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2491398795.374221</v>
+        <v>2666746008.632952</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1176581130162314</v>
+        <v>0.1164315326748177</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0407091037174931</v>
+        <v>0.05605080404281101</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1245699374.121037</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2511624012.436406</v>
+        <v>1963235423.078866</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06457679296364906</v>
+        <v>0.06203156011578629</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03118257290131757</v>
+        <v>0.04043722819698473</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>148</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1255812018.153189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3397161760.053275</v>
+        <v>3187411876.776891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1514475025339785</v>
+        <v>0.1766921206894889</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02215689352241477</v>
+        <v>0.03129723133866171</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>150</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1698580978.161913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1556861560.373087</v>
+        <v>1534313262.337424</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1739337617512031</v>
+        <v>0.1592024029621917</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0351256351697751</v>
+        <v>0.03083790795004135</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>778430868.2986259</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5143117707.300657</v>
+        <v>3993474610.394754</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1554354604617059</v>
+        <v>0.145384998401689</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05317751012403008</v>
+        <v>0.0480853276055143</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>198</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2571558964.05318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3874990924.677237</v>
+        <v>4201381240.75567</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1271901229765339</v>
+        <v>0.1289990458626745</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03163262018306438</v>
+        <v>0.04147641294630348</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>195</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1937495466.321917</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2743360906.82093</v>
+        <v>2457538731.815578</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1216269447765104</v>
+        <v>0.1563430169921496</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04678607926333053</v>
+        <v>0.03648479815854366</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>160</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1371680447.946089</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4986122183.093104</v>
+        <v>3414372655.026995</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1017808618274599</v>
+        <v>0.09762240321873047</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02760374401000421</v>
+        <v>0.02139135521861427</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>159</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2493061096.411534</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3400063153.796338</v>
+        <v>3752281891.392181</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1471295623159177</v>
+        <v>0.146235529731059</v>
       </c>
       <c r="G14" t="n">
-        <v>0.040737757838049</v>
+        <v>0.03391147205526673</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>152</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1700031582.388065</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1528665101.410474</v>
+        <v>1725444980.406926</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09105206123047564</v>
+        <v>0.09654742957303952</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03233104557059362</v>
+        <v>0.03451774444730999</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>764332642.7204233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2755423617.468675</v>
+        <v>2838937757.868187</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07777496066537318</v>
+        <v>0.0997953519943236</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03389460526442953</v>
+        <v>0.0360794927707808</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>97</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1377711816.747886</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5196733055.407177</v>
+        <v>4241834487.814693</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1601168403158552</v>
+        <v>0.1714441764033335</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03726826356491904</v>
+        <v>0.0332507121896238</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>138</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2598366503.193089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3708219243.736961</v>
+        <v>3716120237.837416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1226117283461922</v>
+        <v>0.1389312542996718</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02656003457751732</v>
+        <v>0.02866242778531888</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>155</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1854109600.873345</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>996715716.1649419</v>
+        <v>901781815.0920588</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1699176308511564</v>
+        <v>0.1701125694748488</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02645198582339867</v>
+        <v>0.02191713012467672</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>498357886.5216652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2788866498.248789</v>
+        <v>1995898823.287962</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1506598789446252</v>
+        <v>0.1556060395805712</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02860193555580787</v>
+        <v>0.02519966936802642</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>66</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1394433191.464545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2547026411.715296</v>
+        <v>1950379598.523999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07490176542245067</v>
+        <v>0.0822005553429145</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03216143034298666</v>
+        <v>0.0426358749436818</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1273513189.516205</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3006846464.589423</v>
+        <v>3629991784.106924</v>
       </c>
       <c r="F22" t="n">
-        <v>0.105717494380906</v>
+        <v>0.1163910423683868</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03992500039437691</v>
+        <v>0.03730752225703721</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1503423293.436789</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>991454753.2484441</v>
+        <v>1543669331.691608</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1405675911113531</v>
+        <v>0.1647338374257938</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05107619099403629</v>
+        <v>0.04486486698661186</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>495727448.272634</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4001551135.341595</v>
+        <v>2740080009.1041</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1411003792149643</v>
+        <v>0.1379629453504075</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03563118652813431</v>
+        <v>0.02853269029990872</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>138</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2000775535.576998</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1079710624.607159</v>
+        <v>1262238765.717041</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0839209106966385</v>
+        <v>0.08324208377995086</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02351155219257699</v>
+        <v>0.02959325543212133</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>539855357.9661796</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1130660027.879525</v>
+        <v>1372500446.764451</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09881890309732944</v>
+        <v>0.08140773718925289</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03197321085215889</v>
+        <v>0.02364608297662478</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>565330017.9962652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3823698400.431496</v>
+        <v>3316133147.708433</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1460182659052525</v>
+        <v>0.1456513907938796</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02474083127728223</v>
+        <v>0.01677537604648468</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>117</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1911849219.126786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2675744388.659747</v>
+        <v>2723662581.919223</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1398841825510707</v>
+        <v>0.1320033739068828</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03412428114489584</v>
+        <v>0.04411879182097907</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1337872177.454271</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5918425484.214464</v>
+        <v>5083109423.372002</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1332480402961403</v>
+        <v>0.09461610232772504</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0340073035823221</v>
+        <v>0.03883224435817948</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>208</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2959212626.109706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2393032640.763417</v>
+        <v>1718269167.625248</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0915070137243142</v>
+        <v>0.1327685724017621</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03038425751484997</v>
+        <v>0.03953304066867906</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1196516402.601622</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1113434717.82167</v>
+        <v>1360056275.007972</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07519215900520923</v>
+        <v>0.09623354725913746</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03704215085951311</v>
+        <v>0.04386907155613816</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>556717330.7737557</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1164641256.37389</v>
+        <v>1687673491.619998</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08829081312256366</v>
+        <v>0.1188712057724438</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03255488789434769</v>
+        <v>0.023693540871244</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>582320627.1079493</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2340086146.396619</v>
+        <v>2792156163.288317</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1744349192946073</v>
+        <v>0.1628672903142248</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05095577215315362</v>
+        <v>0.04595270170985313</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1170043125.03075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1557254649.236272</v>
+        <v>1256894922.157334</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09199034902814338</v>
+        <v>0.09840628546248997</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01745573111667651</v>
+        <v>0.02065657300514518</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>778627271.1120598</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1049671560.784923</v>
+        <v>981651616.8869948</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09362774528009087</v>
+        <v>0.07973092850942884</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04481014661588422</v>
+        <v>0.02728887805126123</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>524835788.1132133</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2757610758.020998</v>
+        <v>2987452580.185717</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1586879163039421</v>
+        <v>0.1757371366686305</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02660213630310875</v>
+        <v>0.02609942751980332</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>118</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1378805380.367626</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2862078398.066827</v>
+        <v>2829790519.494233</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09251189972287642</v>
+        <v>0.1040832174159391</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03868999526046554</v>
+        <v>0.04145211164412124</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>127</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1431039344.951877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2079088894.403653</v>
+        <v>1977744165.321308</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09753868463468644</v>
+        <v>0.0867666055126682</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03750346738595648</v>
+        <v>0.03946510817109519</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1039544414.670769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1795437517.902944</v>
+        <v>1632430030.601923</v>
       </c>
       <c r="F39" t="n">
-        <v>0.129086577382095</v>
+        <v>0.1737033733303146</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02755677756012765</v>
+        <v>0.03063913395576009</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>897718784.5460004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1145566437.220096</v>
+        <v>1634619447.643037</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1017199301213952</v>
+        <v>0.1115952381280445</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03899587990808679</v>
+        <v>0.05217613606817723</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>572783273.5559547</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2454717600.495086</v>
+        <v>2413065123.480101</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1046854716297016</v>
+        <v>0.1176188165847189</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04472922650117955</v>
+        <v>0.03148438540593519</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>114</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1227358829.982484</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3449451185.885951</v>
+        <v>3646947998.761092</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1182719366522608</v>
+        <v>0.1214099920247819</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03044531700445938</v>
+        <v>0.04627981734525365</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1724725584.32934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2560542838.801876</v>
+        <v>3044917945.272133</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1937453318006878</v>
+        <v>0.1243272618791052</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02160334936961626</v>
+        <v>0.01651732742033354</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>165</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1280271461.994778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1542403962.577612</v>
+        <v>1804021204.594641</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0783019505734593</v>
+        <v>0.08238288978364901</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03415126767393824</v>
+        <v>0.03547289584467413</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>771201996.3388699</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2272077841.733257</v>
+        <v>1709896288.198697</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1788390822101912</v>
+        <v>0.1352849361296706</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03986198756423165</v>
+        <v>0.03489359272795097</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1136038939.21542</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4442163589.066265</v>
+        <v>5699876308.217512</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1153656553735721</v>
+        <v>0.1751732198165438</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05041182591335711</v>
+        <v>0.05923362266829644</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>168</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2221081789.442824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4056066607.099056</v>
+        <v>4581840680.31853</v>
       </c>
       <c r="F47" t="n">
-        <v>0.177570726374909</v>
+        <v>0.1508857019888999</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04217408071394976</v>
+        <v>0.05164200656940222</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>126</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2028033305.863955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4697442215.265578</v>
+        <v>3888470418.985675</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09637757634116452</v>
+        <v>0.1084314521625956</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02394400143547335</v>
+        <v>0.03347105884796379</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>153</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2348721101.518735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1746446373.020796</v>
+        <v>1288857764.165797</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1931194253651324</v>
+        <v>0.1344360071643307</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03224918300154827</v>
+        <v>0.02935280291575597</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>873223180.2510058</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3585524826.753854</v>
+        <v>3804662438.693628</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1275842679361071</v>
+        <v>0.1457991784695589</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04764412950286376</v>
+        <v>0.04046189851327682</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>161</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1792762431.594527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1284868119.757596</v>
+        <v>1419205850.714658</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1823995291048284</v>
+        <v>0.1838562338869772</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03307084216054314</v>
+        <v>0.04233341430046082</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>642434097.6870219</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5057894180.028974</v>
+        <v>4170369413.903049</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1338215519839266</v>
+        <v>0.1356363003858153</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03909947561313266</v>
+        <v>0.05413728236817949</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>194</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2528947084.254642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2960581108.506429</v>
+        <v>3024998542.043291</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1870179085468702</v>
+        <v>0.1417270489925426</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02141610883818363</v>
+        <v>0.0293584742030287</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>135</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1480290589.399014</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3501157594.47111</v>
+        <v>4044337181.757123</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1531486953728782</v>
+        <v>0.1568971477748875</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0398486163704494</v>
+        <v>0.03829982311658206</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>153</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1750578822.166031</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4476817920.208847</v>
+        <v>4969702771.32955</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1911805634576715</v>
+        <v>0.1661605667270129</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02734491331408274</v>
+        <v>0.02653602277337487</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2238408956.078169</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1480449917.220949</v>
+        <v>1374864244.629886</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1274297935149851</v>
+        <v>0.1257033524438003</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04423655779101765</v>
+        <v>0.04493008553386289</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>740225003.7952987</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2934480748.408015</v>
+        <v>3184649694.55551</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1328629245341206</v>
+        <v>0.1748273095759773</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02007868362577247</v>
+        <v>0.01849960005919372</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>150</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1467240373.129165</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1811609281.28627</v>
+        <v>1484450724.095238</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1263181300081779</v>
+        <v>0.1472892985882604</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03232936743860304</v>
+        <v>0.03389276888436266</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>905804643.3597884</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4824296460.230241</v>
+        <v>4646300973.958622</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1013177870186712</v>
+        <v>0.1066799935248331</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03631471444534563</v>
+        <v>0.03675401234738972</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>128</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2412148166.332009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2479608209.634559</v>
+        <v>3571157708.267046</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1665967975337183</v>
+        <v>0.1672551935136126</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03087861947770823</v>
+        <v>0.02760588083207433</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>147</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1239804120.603532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2749521436.618176</v>
+        <v>2409555873.375667</v>
       </c>
       <c r="F61" t="n">
-        <v>0.129346453970006</v>
+        <v>0.1103772357211753</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03230816013850166</v>
+        <v>0.02172486463799238</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>161</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1374760722.418517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2067517977.397209</v>
+        <v>1999386646.650124</v>
       </c>
       <c r="F62" t="n">
-        <v>0.178598212244302</v>
+        <v>0.1939852111060607</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03491285136364614</v>
+        <v>0.04410933872386227</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1033759056.887884</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5314359384.222037</v>
+        <v>4760962167.414787</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09560541343091823</v>
+        <v>0.0877333078622673</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04420886685615919</v>
+        <v>0.04347992431796829</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2657179695.857606</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4221568744.660195</v>
+        <v>5171800468.076237</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1505254201602919</v>
+        <v>0.1830620898140236</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02805128240221232</v>
+        <v>0.0242022430746283</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>147</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2110784423.794714</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4360403678.191552</v>
+        <v>4985637637.678421</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1376648005170537</v>
+        <v>0.1330351517334968</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02484597896332854</v>
+        <v>0.02194083094428546</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>169</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2180201836.184858</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3845275852.631884</v>
+        <v>3469116672.621305</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1386065461730231</v>
+        <v>0.1199081109143055</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04529674776217716</v>
+        <v>0.03494824333482251</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>138</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1922637891.603425</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2753595521.157269</v>
+        <v>2672501737.823171</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08931446461852093</v>
+        <v>0.08576464244701354</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03866963280201677</v>
+        <v>0.04210828446375372</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>151</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1376797799.729611</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4655293431.082196</v>
+        <v>5785991605.836595</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1283652067250594</v>
+        <v>0.09928326838611891</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04889808259806949</v>
+        <v>0.03309492939679596</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>151</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2327646751.057127</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2458896872.939899</v>
+        <v>1758018280.923008</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1449000878522517</v>
+        <v>0.1618461390877585</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03929920215092842</v>
+        <v>0.05399442234275178</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1229448500.8079</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3590698747.584941</v>
+        <v>3355015452.289787</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0924856161438201</v>
+        <v>0.1001073453938384</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04276595114018489</v>
+        <v>0.03640799723968408</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>135</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1795349389.204148</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5220222183.007313</v>
+        <v>3435537142.092015</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1257144883606543</v>
+        <v>0.1832029432800292</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02295245398735038</v>
+        <v>0.0314954451334377</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>172</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2610111213.67422</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1833399373.54354</v>
+        <v>2139973415.192235</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1053715029408026</v>
+        <v>0.09461795955149012</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03742670826139938</v>
+        <v>0.0334361648007268</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>916699660.023407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3143728233.57782</v>
+        <v>3088137782.520981</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1007426971974235</v>
+        <v>0.07235529974786639</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04907322275508367</v>
+        <v>0.03889145675301954</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>178</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1571864099.63079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3294936643.914384</v>
+        <v>3500702526.570854</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1653358314247605</v>
+        <v>0.1128590315488674</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03395646648921736</v>
+        <v>0.02879989463367033</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>160</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1647468361.89209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1949669837.289482</v>
+        <v>2313749741.928583</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1046822067358214</v>
+        <v>0.128983485667665</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03232785054457537</v>
+        <v>0.02538101492105527</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
         <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>974834887.537119</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3420399650.21893</v>
+        <v>4608534778.840511</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07545567527429815</v>
+        <v>0.1077771171349056</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03243786112901446</v>
+        <v>0.02726639189845379</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1710199785.544881</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1500329627.647681</v>
+        <v>1438839191.385246</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1399593202813811</v>
+        <v>0.1748622096213767</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02942266738110981</v>
+        <v>0.01957949967861784</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>750164801.5512973</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3960570915.697939</v>
+        <v>3409196860.181527</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1271306874108132</v>
+        <v>0.1056605428758839</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05605042656102226</v>
+        <v>0.04397373220680502</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>164</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1980285426.426474</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1684128052.210031</v>
+        <v>1923632115.461412</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1736847858678477</v>
+        <v>0.1488604177660088</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02491590379885652</v>
+        <v>0.02463596878315092</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>842064092.5113915</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4749187451.169165</v>
+        <v>5617433198.943552</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08460944639394621</v>
+        <v>0.08750684160467941</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03225819475653425</v>
+        <v>0.02756620691663591</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2374593762.357173</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4587363663.325228</v>
+        <v>4610141126.831187</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1278066501629055</v>
+        <v>0.1084921224472793</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02677549531875808</v>
+        <v>0.03133866759662077</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2293681816.701264</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4263972830.412531</v>
+        <v>4682119707.19718</v>
       </c>
       <c r="F82" t="n">
-        <v>0.14907374707737</v>
+        <v>0.1631414963967396</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02075149720222842</v>
+        <v>0.02768086231768785</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>165</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2131986440.248772</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1812399220.58287</v>
+        <v>2108005244.723576</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1398060812902316</v>
+        <v>0.1419084873972926</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04285148966888153</v>
+        <v>0.034069832597242</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>906199572.2765329</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2495099683.888448</v>
+        <v>1952670829.733999</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07803724984876512</v>
+        <v>0.1141666188336551</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04340219120582375</v>
+        <v>0.04626525400955121</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1247549774.454522</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2945665938.701695</v>
+        <v>2775882000.976304</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1264373399286873</v>
+        <v>0.182925752599985</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0390310703315962</v>
+        <v>0.03606124359246221</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>176</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1472833023.552872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2743649948.359738</v>
+        <v>1976014176.321045</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1638196436474583</v>
+        <v>0.1711918475331386</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02109363727545059</v>
+        <v>0.02080545832549682</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1371825105.240446</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1148264944.33012</v>
+        <v>1296115231.11515</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1885029582173487</v>
+        <v>0.1756030446565115</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03009837630867214</v>
+        <v>0.03966268180004314</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>574132514.5292838</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2911355380.50955</v>
+        <v>2615060912.393661</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1448530549324488</v>
+        <v>0.1686216891768623</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02476020377372148</v>
+        <v>0.02697730082835727</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>188</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1455677711.974197</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2886127625.589426</v>
+        <v>2989115602.621112</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1490571617459552</v>
+        <v>0.1560804358572367</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02656223367723368</v>
+        <v>0.03140972303428032</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>160</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1443063859.287037</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2025725586.350125</v>
+        <v>1574006670.70701</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1355386537504241</v>
+        <v>0.1165869215272389</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05572638390408212</v>
+        <v>0.05052862185754364</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1012862868.122672</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1875239343.761246</v>
+        <v>1826709663.86132</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1951943040562031</v>
+        <v>0.1276785346275533</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05827183207960412</v>
+        <v>0.0609683916269489</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>937619660.7811799</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2420297700.302967</v>
+        <v>2076913003.469421</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09788745599467061</v>
+        <v>0.08524741226000594</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04215468686383072</v>
+        <v>0.03144208844699379</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1210148828.079958</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4331445553.564181</v>
+        <v>3646604813.778578</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1382181361420726</v>
+        <v>0.1112692352399495</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0335188853691743</v>
+        <v>0.05176779829306863</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2165722756.003666</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1613435414.187052</v>
+        <v>2288783593.736997</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1480062674803165</v>
+        <v>0.1667917370254332</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03805590488871531</v>
+        <v>0.03343765490648147</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>806717655.1621823</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3159456994.116018</v>
+        <v>3278321563.399091</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1118097246935697</v>
+        <v>0.1113534441714072</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0328983350407057</v>
+        <v>0.04607144764649496</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1579728485.195817</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2333025123.42291</v>
+        <v>1655567735.791079</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09930049337439087</v>
+        <v>0.1302500981700923</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0449040659028597</v>
+        <v>0.03449134295517675</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1166512513.17913</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5142568672.059907</v>
+        <v>5049527984.152964</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1663945903739704</v>
+        <v>0.1250967929847879</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02877390854571941</v>
+        <v>0.01843373405411166</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>152</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2571284484.327151</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2400032767.016263</v>
+        <v>2586951578.764383</v>
       </c>
       <c r="F98" t="n">
-        <v>0.12216199425918</v>
+        <v>0.08147516030186502</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02657763666660196</v>
+        <v>0.02728638679783251</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1200016327.522608</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2661873453.340528</v>
+        <v>2648966246.338927</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1351664188795504</v>
+        <v>0.1337990301055308</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02659708716157346</v>
+        <v>0.02611814273021049</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>148</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1330936688.196033</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4408363359.494293</v>
+        <v>3440896727.980865</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1163812271052309</v>
+        <v>0.113382223916094</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02340394122216626</v>
+        <v>0.02344855711749348</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>144</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2204181783.041986</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2693607402.056515</v>
+        <v>3433895243.064235</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1946714214340755</v>
+        <v>0.2088159773332159</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03559958681505097</v>
+        <v>0.05061166231982939</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>193</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1346803749.659</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_472.xlsx
+++ b/output/fit_clients/fit_round_472.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2237770062.127324</v>
+        <v>2086510040.240072</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07735104445334888</v>
+        <v>0.06961569342197876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0417405505106407</v>
+        <v>0.03759879830415784</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2008115481.58174</v>
+        <v>2425787285.688248</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1263018974279412</v>
+        <v>0.137276503408099</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04709223973732792</v>
+        <v>0.03280091004260663</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4898275156.888281</v>
+        <v>5100297749.602869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1368168223579445</v>
+        <v>0.1546263928709066</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02871759130579819</v>
+        <v>0.03711227604747001</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2711411088.747274</v>
+        <v>3972194537.016879</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09935074045047312</v>
+        <v>0.1072169494823249</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04333330841280603</v>
+        <v>0.04018961581541432</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2666746008.632952</v>
+        <v>2410650188.055969</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1164315326748177</v>
+        <v>0.09371741966201114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05605080404281101</v>
+        <v>0.04122207845167961</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1963235423.078866</v>
+        <v>2400736679.654333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06203156011578629</v>
+        <v>0.09613251399560925</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04043722819698473</v>
+        <v>0.0336128378878962</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3187411876.776891</v>
+        <v>2561140102.577304</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1766921206894889</v>
+        <v>0.1879518711067095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03129723133866171</v>
+        <v>0.02443622561156733</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1534313262.337424</v>
+        <v>1643164736.201868</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1592024029621917</v>
+        <v>0.1416424885357286</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03083790795004135</v>
+        <v>0.02508171561447028</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3993474610.394754</v>
+        <v>4946545131.91032</v>
       </c>
       <c r="F10" t="n">
-        <v>0.145384998401689</v>
+        <v>0.1550762916705479</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0480853276055143</v>
+        <v>0.05449343565949172</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4201381240.75567</v>
+        <v>3754901565.750209</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1289990458626745</v>
+        <v>0.1259567275765338</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04147641294630348</v>
+        <v>0.03327598320459095</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2457538731.815578</v>
+        <v>3221451913.186572</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1563430169921496</v>
+        <v>0.1304579447567582</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03648479815854366</v>
+        <v>0.05089194371581873</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3414372655.026995</v>
+        <v>4215858258.265453</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09762240321873047</v>
+        <v>0.0814820957944247</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02139135521861427</v>
+        <v>0.02105101486424651</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3752281891.392181</v>
+        <v>2558897988.125332</v>
       </c>
       <c r="F14" t="n">
-        <v>0.146235529731059</v>
+        <v>0.1454312230804772</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03391147205526673</v>
+        <v>0.03485544581668967</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1725444980.406926</v>
+        <v>1766200256.029728</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09654742957303952</v>
+        <v>0.1013778410477496</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03451774444730999</v>
+        <v>0.03033246706677353</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2838937757.868187</v>
+        <v>1998400721.614856</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0997953519943236</v>
+        <v>0.08856557730116983</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0360794927707808</v>
+        <v>0.04093818200237968</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4241834487.814693</v>
+        <v>4878363017.418067</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1714441764033335</v>
+        <v>0.1651856637902478</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0332507121896238</v>
+        <v>0.03867390274024438</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3716120237.837416</v>
+        <v>3407306131.116558</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1389312542996718</v>
+        <v>0.1181398415782549</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02866242778531888</v>
+        <v>0.02843033876182923</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>901781815.0920588</v>
+        <v>1095182567.880884</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1701125694748488</v>
+        <v>0.1836885144103691</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02191713012467672</v>
+        <v>0.02019533771551834</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1995898823.287962</v>
+        <v>2259764240.640408</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1556060395805712</v>
+        <v>0.1158790304049839</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02519966936802642</v>
+        <v>0.02455489503622772</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1950379598.523999</v>
+        <v>1670966519.79897</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0822005553429145</v>
+        <v>0.09303981918373329</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0426358749436818</v>
+        <v>0.03217671664335244</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3629991784.106924</v>
+        <v>2532625037.352391</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1163910423683868</v>
+        <v>0.1352090717503643</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03730752225703721</v>
+        <v>0.03600248157017004</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1543669331.691608</v>
+        <v>1397219596.729664</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1647338374257938</v>
+        <v>0.1770394442462946</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04486486698661186</v>
+        <v>0.05214572644707263</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2740080009.1041</v>
+        <v>2986217244.977026</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1379629453504075</v>
+        <v>0.1479972650085048</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02853269029990872</v>
+        <v>0.02498146093985413</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1262238765.717041</v>
+        <v>909216643.5792773</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08324208377995086</v>
+        <v>0.1158061838566788</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02959325543212133</v>
+        <v>0.02017410706526881</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1372500446.764451</v>
+        <v>1155907854.319451</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08140773718925289</v>
+        <v>0.07792384857411079</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02364608297662478</v>
+        <v>0.03801272977702755</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3316133147.708433</v>
+        <v>3649557832.038549</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1456513907938796</v>
+        <v>0.1191391040965752</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01677537604648468</v>
+        <v>0.01898627989539475</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2723662581.919223</v>
+        <v>3505095405.724692</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1320033739068828</v>
+        <v>0.1242685270430163</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04411879182097907</v>
+        <v>0.04643731480374992</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5083109423.372002</v>
+        <v>4086877695.367044</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09461610232772504</v>
+        <v>0.09350607436378026</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03883224435817948</v>
+        <v>0.03728870844944798</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1718269167.625248</v>
+        <v>1686821428.174279</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1327685724017621</v>
+        <v>0.1151133512122728</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03953304066867906</v>
+        <v>0.03247570954841292</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1360056275.007972</v>
+        <v>1052822548.452189</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09623354725913746</v>
+        <v>0.1002060171895178</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04386907155613816</v>
+        <v>0.05078196819250027</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1687673491.619998</v>
+        <v>1476043943.290711</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1188712057724438</v>
+        <v>0.1149594625236153</v>
       </c>
       <c r="G32" t="n">
-        <v>0.023693540871244</v>
+        <v>0.03720401261950262</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2792156163.288317</v>
+        <v>2170538396.802325</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1628672903142248</v>
+        <v>0.144046116916135</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04595270170985313</v>
+        <v>0.06010828521268766</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1256894922.157334</v>
+        <v>1203560687.970253</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09840628546248997</v>
+        <v>0.1103086868271316</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02065657300514518</v>
+        <v>0.02615322293345082</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>981651616.8869948</v>
+        <v>968043209.0750614</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07973092850942884</v>
+        <v>0.1094313775606616</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02728887805126123</v>
+        <v>0.0305193227257033</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2987452580.185717</v>
+        <v>2054826294.420216</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1757371366686305</v>
+        <v>0.1636698329182895</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02609942751980332</v>
+        <v>0.02241903914648072</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2829790519.494233</v>
+        <v>1879993547.551095</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1040832174159391</v>
+        <v>0.08492941369499361</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04145211164412124</v>
+        <v>0.02813514955784943</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1977744165.321308</v>
+        <v>1660643865.899122</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0867666055126682</v>
+        <v>0.1129044223345328</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03946510817109519</v>
+        <v>0.02590276792419376</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1632430030.601923</v>
+        <v>1534853963.337885</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1737033733303146</v>
+        <v>0.138788703794733</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03063913395576009</v>
+        <v>0.03238475537547804</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1634619447.643037</v>
+        <v>1428759917.86424</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1115952381280445</v>
+        <v>0.1442983088333896</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05217613606817723</v>
+        <v>0.05611331210468427</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2413065123.480101</v>
+        <v>1780394458.272798</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1176188165847189</v>
+        <v>0.1616319665935054</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03148438540593519</v>
+        <v>0.04656204454253914</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3646947998.761092</v>
+        <v>3242492094.072899</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1214099920247819</v>
+        <v>0.1245675693254144</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04627981734525365</v>
+        <v>0.03002341706830189</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3044917945.272133</v>
+        <v>1946714017.154488</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1243272618791052</v>
+        <v>0.1327902491480509</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01651732742033354</v>
+        <v>0.02136180987989001</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1804021204.594641</v>
+        <v>1557039770.796938</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08238288978364901</v>
+        <v>0.06775320047929717</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03547289584467413</v>
+        <v>0.02463189616886677</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1709896288.198697</v>
+        <v>2518095792.694681</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1352849361296706</v>
+        <v>0.1571752172772952</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03489359272795097</v>
+        <v>0.0446137113974697</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5699876308.217512</v>
+        <v>4886001930.348917</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1751732198165438</v>
+        <v>0.1777999800090195</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05923362266829644</v>
+        <v>0.05535432739332216</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4581840680.31853</v>
+        <v>4371594070.842011</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1508857019888999</v>
+        <v>0.1274885776442236</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05164200656940222</v>
+        <v>0.03623689758749942</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3888470418.985675</v>
+        <v>3701327680.548639</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1084314521625956</v>
+        <v>0.1100578392881547</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03347105884796379</v>
+        <v>0.03415188409144512</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1288857764.165797</v>
+        <v>1223140164.344297</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1344360071643307</v>
+        <v>0.1728194765736891</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02935280291575597</v>
+        <v>0.04374494180404676</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3804662438.693628</v>
+        <v>3875542928.352149</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1457991784695589</v>
+        <v>0.1516569522207558</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04046189851327682</v>
+        <v>0.04686347546326524</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1419205850.714658</v>
+        <v>1394246202.682122</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1838562338869772</v>
+        <v>0.1517341071007553</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04233341430046082</v>
+        <v>0.05335385723902612</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4170369413.903049</v>
+        <v>4914966294.38763</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1356363003858153</v>
+        <v>0.1114472281807152</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05413728236817949</v>
+        <v>0.06203516852555902</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3024998542.043291</v>
+        <v>2990666072.827209</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1417270489925426</v>
+        <v>0.1861430073663338</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0293584742030287</v>
+        <v>0.03286022654875399</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4044337181.757123</v>
+        <v>4784548153.939827</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1568971477748875</v>
+        <v>0.1683089518607652</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03829982311658206</v>
+        <v>0.03820469951551104</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4969702771.32955</v>
+        <v>3777409888.864408</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1661605667270129</v>
+        <v>0.1530623790276724</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02653602277337487</v>
+        <v>0.02775406974145411</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1374864244.629886</v>
+        <v>1249978256.111224</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1257033524438003</v>
+        <v>0.1192693474717658</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04493008553386289</v>
+        <v>0.05557978617573314</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3184649694.55551</v>
+        <v>2956383662.656505</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1748273095759773</v>
+        <v>0.1127160159097844</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01849960005919372</v>
+        <v>0.02641976214428989</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1484450724.095238</v>
+        <v>1767027450.597945</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1472892985882604</v>
+        <v>0.1288208376922891</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03389276888436266</v>
+        <v>0.03602648742411063</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4646300973.958622</v>
+        <v>4926096200.898527</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1066799935248331</v>
+        <v>0.1087488098974093</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03675401234738972</v>
+        <v>0.03233985269172451</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3571157708.267046</v>
+        <v>3195286451.518306</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1672551935136126</v>
+        <v>0.1600969596802076</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02760588083207433</v>
+        <v>0.03119848866231171</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2409555873.375667</v>
+        <v>3316709848.707721</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1103772357211753</v>
+        <v>0.1391521035575179</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02172486463799238</v>
+        <v>0.02632720103242625</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1999386646.650124</v>
+        <v>1309194104.104845</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1939852111060607</v>
+        <v>0.1925598366919975</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04410933872386227</v>
+        <v>0.03102450276375109</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4760962167.414787</v>
+        <v>4832512226.435062</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0877333078622673</v>
+        <v>0.09522959109154623</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04347992431796829</v>
+        <v>0.04670546893787012</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5171800468.076237</v>
+        <v>5348592579.463455</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1830620898140236</v>
+        <v>0.1445678604182653</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0242022430746283</v>
+        <v>0.02190317157634173</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4985637637.678421</v>
+        <v>4960699691.561526</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1330351517334968</v>
+        <v>0.1551102492623816</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02194083094428546</v>
+        <v>0.02560025004910297</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3469116672.621305</v>
+        <v>4002633120.020331</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1199081109143055</v>
+        <v>0.09918758824903237</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03494824333482251</v>
+        <v>0.03497119056175078</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2672501737.823171</v>
+        <v>2322738180.821042</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08576464244701354</v>
+        <v>0.09235230390742151</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04210828446375372</v>
+        <v>0.04531716829980164</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5785991605.836595</v>
+        <v>3846850101.636709</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09928326838611891</v>
+        <v>0.1042783718793568</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03309492939679596</v>
+        <v>0.04115525826425142</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1758018280.923008</v>
+        <v>1741500761.995484</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1618461390877585</v>
+        <v>0.131787299062158</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05399442234275178</v>
+        <v>0.04797446754576366</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3355015452.289787</v>
+        <v>3246560159.480241</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1001073453938384</v>
+        <v>0.06907777241700401</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03640799723968408</v>
+        <v>0.04556548350557276</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3435537142.092015</v>
+        <v>5155151330.144687</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1832029432800292</v>
+        <v>0.1387073617132655</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0314954451334377</v>
+        <v>0.02352005353145913</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2139973415.192235</v>
+        <v>2094429042.882034</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09461795955149012</v>
+        <v>0.09761076866058824</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0334361648007268</v>
+        <v>0.03548938992406866</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3088137782.520981</v>
+        <v>3196104781.649251</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07235529974786639</v>
+        <v>0.08734730297121461</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03889145675301954</v>
+        <v>0.03286557747530919</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3500702526.570854</v>
+        <v>3498492089.689689</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1128590315488674</v>
+        <v>0.17269307074174</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02879989463367033</v>
+        <v>0.02712259810760464</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2313749741.928583</v>
+        <v>1780278916.19997</v>
       </c>
       <c r="F75" t="n">
-        <v>0.128983485667665</v>
+        <v>0.1623462505594955</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02538101492105527</v>
+        <v>0.02449202626506922</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4608534778.840511</v>
+        <v>3916407337.285843</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1077771171349056</v>
+        <v>0.1104433396247747</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02726639189845379</v>
+        <v>0.02444883215106552</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1438839191.385246</v>
+        <v>1739120427.03312</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1748622096213767</v>
+        <v>0.1699908145389106</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01957949967861784</v>
+        <v>0.02407908246541955</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3409196860.181527</v>
+        <v>3649627296.450738</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1056605428758839</v>
+        <v>0.1082480398844996</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04397373220680502</v>
+        <v>0.04160531269320789</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1923632115.461412</v>
+        <v>1769900022.552791</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1488604177660088</v>
+        <v>0.1672061637926204</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02463596878315092</v>
+        <v>0.02641894017403326</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5617433198.943552</v>
+        <v>3978025628.000557</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08750684160467941</v>
+        <v>0.1057167423278366</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02756620691663591</v>
+        <v>0.03068888044237343</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4610141126.831187</v>
+        <v>4737588631.673963</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1084921224472793</v>
+        <v>0.08861923644727351</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03133866759662077</v>
+        <v>0.0258958816901479</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4682119707.19718</v>
+        <v>4208718672.494558</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1631414963967396</v>
+        <v>0.1799122293838314</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02768086231768785</v>
+        <v>0.02717651887427429</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2108005244.723576</v>
+        <v>2306699048.056713</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1419084873972926</v>
+        <v>0.1309604757077794</v>
       </c>
       <c r="G83" t="n">
-        <v>0.034069832597242</v>
+        <v>0.03869889277864796</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1952670829.733999</v>
+        <v>2519053911.643283</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1141666188336551</v>
+        <v>0.1169567892835163</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04626525400955121</v>
+        <v>0.04305468727067229</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2775882000.976304</v>
+        <v>3522921487.772464</v>
       </c>
       <c r="F85" t="n">
-        <v>0.182925752599985</v>
+        <v>0.1154100316549514</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03606124359246221</v>
+        <v>0.04224598693611402</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1976014176.321045</v>
+        <v>2661893319.733654</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1711918475331386</v>
+        <v>0.1559962421806697</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02080545832549682</v>
+        <v>0.02742397218060356</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1296115231.11515</v>
+        <v>966100761.6509475</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1756030446565115</v>
+        <v>0.1713152472389629</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03966268180004314</v>
+        <v>0.03793480853763131</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2615060912.393661</v>
+        <v>3607329573.273992</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1686216891768623</v>
+        <v>0.1118554085155152</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02697730082835727</v>
+        <v>0.03669947623715043</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2989115602.621112</v>
+        <v>2964213320.360855</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1560804358572367</v>
+        <v>0.1522400871911291</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03140972303428032</v>
+        <v>0.0398717195571107</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1574006670.70701</v>
+        <v>2100840210.725376</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1165869215272389</v>
+        <v>0.1063331440802492</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05052862185754364</v>
+        <v>0.05120246292887802</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1826709663.86132</v>
+        <v>2057454187.578844</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1276785346275533</v>
+        <v>0.1245723626798635</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0609683916269489</v>
+        <v>0.06159216782364185</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2076913003.469421</v>
+        <v>2855748826.405738</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08524741226000594</v>
+        <v>0.07499937181830153</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03144208844699379</v>
+        <v>0.04516909728676331</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3646604813.778578</v>
+        <v>3978846663.322069</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1112692352399495</v>
+        <v>0.1256566913593271</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05176779829306863</v>
+        <v>0.03518227451827567</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2288783593.736997</v>
+        <v>1983703997.781523</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1667917370254332</v>
+        <v>0.1505347439229197</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03343765490648147</v>
+        <v>0.04077552382209275</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3278321563.399091</v>
+        <v>3255848477.726428</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1113534441714072</v>
+        <v>0.09734997195238138</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04607144764649496</v>
+        <v>0.03410584552397466</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1655567735.791079</v>
+        <v>2161741056.569659</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1302500981700923</v>
+        <v>0.1349333754689763</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03449134295517675</v>
+        <v>0.04089007625413292</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5049527984.152964</v>
+        <v>5142180413.318563</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1250967929847879</v>
+        <v>0.1523232836840764</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01843373405411166</v>
+        <v>0.02883520440230941</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2586951578.764383</v>
+        <v>3440476795.363928</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08147516030186502</v>
+        <v>0.1093681271940588</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02728638679783251</v>
+        <v>0.02110978105220373</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2648966246.338927</v>
+        <v>2689168312.179958</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1337990301055308</v>
+        <v>0.1329253403005367</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02611814273021049</v>
+        <v>0.02638123191203565</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3440896727.980865</v>
+        <v>3522165397.504596</v>
       </c>
       <c r="F100" t="n">
-        <v>0.113382223916094</v>
+        <v>0.1506468202245632</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02344855711749348</v>
+        <v>0.01775510063586615</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3433895243.064235</v>
+        <v>3217233136.918362</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2088159773332159</v>
+        <v>0.2230300289035984</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05061166231982939</v>
+        <v>0.04753959987587111</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_472.xlsx
+++ b/output/fit_clients/fit_round_472.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2086510040.240072</v>
+        <v>2390472501.53411</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06961569342197876</v>
+        <v>0.07176299599756336</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03759879830415784</v>
+        <v>0.03880026023513288</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2425787285.688248</v>
+        <v>2632853298.754835</v>
       </c>
       <c r="F3" t="n">
-        <v>0.137276503408099</v>
+        <v>0.1453202600039483</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03280091004260663</v>
+        <v>0.03115611055656348</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5100297749.602869</v>
+        <v>4338877352.77966</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1546263928709066</v>
+        <v>0.1646180574341018</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03711227604747001</v>
+        <v>0.03545242395512923</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>238</v>
+      </c>
+      <c r="J4" t="n">
+        <v>472</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3972194537.016879</v>
+        <v>2919289840.603581</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1072169494823249</v>
+        <v>0.0681519669198993</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04018961581541432</v>
+        <v>0.03714740802745035</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>199</v>
+      </c>
+      <c r="J5" t="n">
+        <v>471</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23.26525507471203</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2410650188.055969</v>
+        <v>1808794285.754232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09371741966201114</v>
+        <v>0.115797282165384</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04122207845167961</v>
+        <v>0.04537305257713594</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2400736679.654333</v>
+        <v>2519341224.332222</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09613251399560925</v>
+        <v>0.09608340272681537</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0336128378878962</v>
+        <v>0.04082721056343595</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2561140102.577304</v>
+        <v>2807799025.029098</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1879518711067095</v>
+        <v>0.1510718378816069</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02443622561156733</v>
+        <v>0.02036289750734415</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1643164736.201868</v>
+        <v>1449763406.675399</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1416424885357286</v>
+        <v>0.1887905371517625</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02508171561447028</v>
+        <v>0.03665961003024534</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4946545131.91032</v>
+        <v>4192913035.823842</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1550762916705479</v>
+        <v>0.2078881144029915</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05449343565949172</v>
+        <v>0.04274730957811072</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>361</v>
+      </c>
+      <c r="J10" t="n">
+        <v>472</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3754901565.750209</v>
+        <v>2967497108.505849</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1259567275765338</v>
+        <v>0.1826538240576109</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03327598320459095</v>
+        <v>0.03702639082376329</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>195</v>
+      </c>
+      <c r="J11" t="n">
+        <v>468</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3221451913.186572</v>
+        <v>2686162359.622944</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1304579447567582</v>
+        <v>0.1690859726171507</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05089194371581873</v>
+        <v>0.04076326323408764</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4215858258.265453</v>
+        <v>3931936496.032768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0814820957944247</v>
+        <v>0.076923119764456</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02105101486424651</v>
+        <v>0.02832942720099408</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>245</v>
+      </c>
+      <c r="J13" t="n">
+        <v>472</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2558897988.125332</v>
+        <v>2895962817.097005</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1454312230804772</v>
+        <v>0.1197558781221117</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03485544581668967</v>
+        <v>0.03347259370121308</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>108</v>
+      </c>
+      <c r="J14" t="n">
+        <v>470</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +958,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1766200256.029728</v>
+        <v>1388503013.968095</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1013778410477496</v>
+        <v>0.08631340155251259</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03033246706677353</v>
+        <v>0.03017329041349399</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1998400721.614856</v>
+        <v>2177843626.200055</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08856557730116983</v>
+        <v>0.09312943243649681</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04093818200237968</v>
+        <v>0.03685847275733461</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4878363017.418067</v>
+        <v>3248504990.319408</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1651856637902478</v>
+        <v>0.1610442879210314</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03867390274024438</v>
+        <v>0.03952072963760297</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>231</v>
+      </c>
+      <c r="J17" t="n">
+        <v>471</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21.97285957032523</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3407306131.116558</v>
+        <v>2952318166.639762</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1181398415782549</v>
+        <v>0.1629526900849353</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02843033876182923</v>
+        <v>0.02458536976429198</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>127</v>
+      </c>
+      <c r="J18" t="n">
+        <v>470</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1095182567.880884</v>
+        <v>855240383.096988</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1836885144103691</v>
+        <v>0.1276993989874357</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02019533771551834</v>
+        <v>0.02323447100909076</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2259764240.640408</v>
+        <v>2039847865.36137</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1158790304049839</v>
+        <v>0.1319709227453479</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02455489503622772</v>
+        <v>0.02033337340505536</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1670966519.79897</v>
+        <v>2088495230.52126</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09303981918373329</v>
+        <v>0.06831577259591132</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03217671664335244</v>
+        <v>0.04109580978878243</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1205,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2532625037.352391</v>
+        <v>3993089694.414412</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1352090717503643</v>
+        <v>0.09666335873108256</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03600248157017004</v>
+        <v>0.0453978932001523</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>137</v>
+      </c>
+      <c r="J22" t="n">
+        <v>472</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1397219596.729664</v>
+        <v>1513717601.514957</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1770394442462946</v>
+        <v>0.1667148597923336</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05214572644707263</v>
+        <v>0.05114119067413491</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2986217244.977026</v>
+        <v>4057632248.637259</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1479972650085048</v>
+        <v>0.1206674185766588</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02498146093985413</v>
+        <v>0.02453927051834241</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>150</v>
+      </c>
+      <c r="J24" t="n">
+        <v>472</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1310,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>909216643.5792773</v>
+        <v>1156802124.531705</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1158061838566788</v>
+        <v>0.08446536125448399</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02017410706526881</v>
+        <v>0.02693886315295195</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1155907854.319451</v>
+        <v>1376297598.684812</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07792384857411079</v>
+        <v>0.09402859863012594</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03801272977702755</v>
+        <v>0.03908403044984657</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3649557832.038549</v>
+        <v>4634610094.22769</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1191391040965752</v>
+        <v>0.1402742165096406</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01898627989539475</v>
+        <v>0.0259470208714696</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>208</v>
+      </c>
+      <c r="J27" t="n">
+        <v>472</v>
+      </c>
+      <c r="K27" t="n">
+        <v>33.60594964027074</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1411,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3505095405.724692</v>
+        <v>2866525639.961694</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1242685270430163</v>
+        <v>0.1249645028919784</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04643731480374992</v>
+        <v>0.04691259304185581</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>117</v>
+      </c>
+      <c r="J28" t="n">
+        <v>471</v>
+      </c>
+      <c r="K28" t="n">
+        <v>28.1444719020176</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4086877695.367044</v>
+        <v>4991083786.038786</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09350607436378026</v>
+        <v>0.1304591295765358</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03728870844944798</v>
+        <v>0.03411658818707995</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>377</v>
+      </c>
+      <c r="J29" t="n">
+        <v>471</v>
+      </c>
+      <c r="K29" t="n">
+        <v>28.48895291386607</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1686821428.174279</v>
+        <v>2334884575.375511</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1151133512122728</v>
+        <v>0.1277376186788267</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03247570954841292</v>
+        <v>0.03823101572393835</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1052822548.452189</v>
+        <v>1406580025.597853</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1002060171895178</v>
+        <v>0.09610355336953341</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05078196819250027</v>
+        <v>0.03450804401677892</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1476043943.290711</v>
+        <v>1355417710.772947</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1149594625236153</v>
+        <v>0.1140650004190955</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03720401261950262</v>
+        <v>0.0338981238400135</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2170538396.802325</v>
+        <v>2552654472.012088</v>
       </c>
       <c r="F33" t="n">
-        <v>0.144046116916135</v>
+        <v>0.1490429438089251</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06010828521268766</v>
+        <v>0.05690065500311779</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1203560687.970253</v>
+        <v>1400046650.086197</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1103086868271316</v>
+        <v>0.1055293597764785</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02615322293345082</v>
+        <v>0.02209729762704827</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>968043209.0750614</v>
+        <v>1075885552.635354</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1094313775606616</v>
+        <v>0.07959094192712812</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0305193227257033</v>
+        <v>0.03682119003440813</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2054826294.420216</v>
+        <v>3069742882.88136</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1636698329182895</v>
+        <v>0.161278974811801</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02241903914648072</v>
+        <v>0.0225807283733933</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1879993547.551095</v>
+        <v>2893813401.7817</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08492941369499361</v>
+        <v>0.09038072424830507</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02813514955784943</v>
+        <v>0.03292561857683207</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1660643865.899122</v>
+        <v>1749271886.703254</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1129044223345328</v>
+        <v>0.107733956037983</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02590276792419376</v>
+        <v>0.0246810624516747</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1534853963.337885</v>
+        <v>1369226059.875994</v>
       </c>
       <c r="F39" t="n">
-        <v>0.138788703794733</v>
+        <v>0.1460013153694423</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03238475537547804</v>
+        <v>0.02214330799974114</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1428759917.86424</v>
+        <v>1244485257.307661</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1442983088333896</v>
+        <v>0.1046719424496656</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05611331210468427</v>
+        <v>0.05266848727110149</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1780394458.272798</v>
+        <v>1792349544.238244</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1616319665935054</v>
+        <v>0.1016174746126352</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04656204454253914</v>
+        <v>0.03798101079731902</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3242492094.072899</v>
+        <v>3291210996.905939</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1245675693254144</v>
+        <v>0.125964808227043</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03002341706830189</v>
+        <v>0.0405195523417048</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>206</v>
+      </c>
+      <c r="J42" t="n">
+        <v>470</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1946714017.154488</v>
+        <v>2390590287.8677</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1327902491480509</v>
+        <v>0.1453122855099638</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02136180987989001</v>
+        <v>0.01792503092604523</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1557039770.796938</v>
+        <v>1895276066.375372</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06775320047929717</v>
+        <v>0.1030937479390207</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02463189616886677</v>
+        <v>0.03424116163741299</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2518095792.694681</v>
+        <v>1973235249.920705</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1571752172772952</v>
+        <v>0.1475335271332467</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0446137113974697</v>
+        <v>0.04029475148722706</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4886001930.348917</v>
+        <v>4156334935.335598</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1777999800090195</v>
+        <v>0.1398677234950939</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05535432739332216</v>
+        <v>0.04402760241633698</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>279</v>
+      </c>
+      <c r="J46" t="n">
+        <v>471</v>
+      </c>
+      <c r="K46" t="n">
+        <v>32.04989795693055</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4371594070.842011</v>
+        <v>4225321693.292305</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1274885776442236</v>
+        <v>0.1453354746718855</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03623689758749942</v>
+        <v>0.03667448859196398</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>213</v>
+      </c>
+      <c r="J47" t="n">
+        <v>471</v>
+      </c>
+      <c r="K47" t="n">
+        <v>30.82717469603114</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3701327680.548639</v>
+        <v>3374940324.975557</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1100578392881547</v>
+        <v>0.09370085805046582</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03415188409144512</v>
+        <v>0.02958171122578869</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>236</v>
+      </c>
+      <c r="J48" t="n">
+        <v>470</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1223140164.344297</v>
+        <v>1721317544.293714</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1728194765736891</v>
+        <v>0.1425319944337218</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04374494180404676</v>
+        <v>0.04426675824742175</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3875542928.352149</v>
+        <v>3980548556.560282</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1516569522207558</v>
+        <v>0.145729121822264</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04686347546326524</v>
+        <v>0.04733017145183709</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>168</v>
+      </c>
+      <c r="J50" t="n">
+        <v>472</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1394246202.682122</v>
+        <v>1256757210.001168</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1517341071007553</v>
+        <v>0.1863781033433385</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05335385723902612</v>
+        <v>0.04467227354102446</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2265,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4914966294.38763</v>
+        <v>3489406254.967907</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1114472281807152</v>
+        <v>0.134011639599289</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06203516852555902</v>
+        <v>0.04741329158168441</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>266</v>
+      </c>
+      <c r="J52" t="n">
+        <v>470</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2990666072.827209</v>
+        <v>2501205757.07539</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1861430073663338</v>
+        <v>0.1762436256637916</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03286022654875399</v>
+        <v>0.03146760840626284</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="n">
+        <v>23.00757399363632</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4784548153.939827</v>
+        <v>4236791789.4787</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1683089518607652</v>
+        <v>0.1565342683221253</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03820469951551104</v>
+        <v>0.05069531201002719</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>250</v>
+      </c>
+      <c r="J54" t="n">
+        <v>471</v>
+      </c>
+      <c r="K54" t="n">
+        <v>32.12115549175722</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3777409888.864408</v>
+        <v>3804605967.994851</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1530623790276724</v>
+        <v>0.1844542799300021</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02775406974145411</v>
+        <v>0.03208323656649521</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>233</v>
+      </c>
+      <c r="J55" t="n">
+        <v>472</v>
+      </c>
+      <c r="K55" t="n">
+        <v>33.93916405700602</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1249978256.111224</v>
+        <v>1507538456.564816</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1192693474717658</v>
+        <v>0.1626139055015008</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05557978617573314</v>
+        <v>0.03962500849902322</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2956383662.656505</v>
+        <v>3871544860.678644</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1127160159097844</v>
+        <v>0.1411429789818829</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02641976214428989</v>
+        <v>0.02669549206503632</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>203</v>
+      </c>
+      <c r="J57" t="n">
+        <v>471</v>
+      </c>
+      <c r="K57" t="n">
+        <v>32.74940089527587</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1767027450.597945</v>
+        <v>1799229503.859665</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1288208376922891</v>
+        <v>0.1459118299801114</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03602648742411063</v>
+        <v>0.03416250169409909</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4926096200.898527</v>
+        <v>3803684762.040451</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1087488098974093</v>
+        <v>0.1288901774198701</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03233985269172451</v>
+        <v>0.047693469677736</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>231</v>
+      </c>
+      <c r="J59" t="n">
+        <v>472</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3195286451.518306</v>
+        <v>3711979689.866241</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1600969596802076</v>
+        <v>0.1445865740684492</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03119848866231171</v>
+        <v>0.02582719955788195</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>91</v>
+      </c>
+      <c r="J60" t="n">
+        <v>472</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3316709848.707721</v>
+        <v>3124122461.67781</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1391521035575179</v>
+        <v>0.180211120246067</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02632720103242625</v>
+        <v>0.02913374318247188</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1309194104.104845</v>
+        <v>1897861638.428574</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1925598366919975</v>
+        <v>0.1226602419390725</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03102450276375109</v>
+        <v>0.03565435809759542</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4832512226.435062</v>
+        <v>3492992499.624712</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09522959109154623</v>
+        <v>0.09286007082801362</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04670546893787012</v>
+        <v>0.03152198917298381</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>236</v>
+      </c>
+      <c r="J63" t="n">
+        <v>470</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5348592579.463455</v>
+        <v>5137269988.708094</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1445678604182653</v>
+        <v>0.1512944192972373</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02190317157634173</v>
+        <v>0.03552496038339401</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>236</v>
+      </c>
+      <c r="J64" t="n">
+        <v>471</v>
+      </c>
+      <c r="K64" t="n">
+        <v>30.95663315655589</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4960699691.561526</v>
+        <v>5101111686.023102</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1551102492623816</v>
+        <v>0.1738062997972879</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02560025004910297</v>
+        <v>0.03075944137847552</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>333</v>
+      </c>
+      <c r="J65" t="n">
+        <v>472</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4002633120.020331</v>
+        <v>4202889143.132093</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09918758824903237</v>
+        <v>0.1313612553804183</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03497119056175078</v>
+        <v>0.04939439089503884</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>233</v>
+      </c>
+      <c r="J66" t="n">
+        <v>471</v>
+      </c>
+      <c r="K66" t="n">
+        <v>32.48614820178847</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2322738180.821042</v>
+        <v>3327677989.904624</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09235230390742151</v>
+        <v>0.08116951267745295</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04531716829980164</v>
+        <v>0.03114767109955578</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3846850101.636709</v>
+        <v>4042738250.62676</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1042783718793568</v>
+        <v>0.1604278721237666</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04115525826425142</v>
+        <v>0.03381152835114375</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>257</v>
+      </c>
+      <c r="J68" t="n">
+        <v>471</v>
+      </c>
+      <c r="K68" t="n">
+        <v>29.69320934187644</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1741500761.995484</v>
+        <v>2204306129.817979</v>
       </c>
       <c r="F69" t="n">
-        <v>0.131787299062158</v>
+        <v>0.1300047087546989</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04797446754576366</v>
+        <v>0.04915147155279644</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3246560159.480241</v>
+        <v>2511627848.490602</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06907777241700401</v>
+        <v>0.08800701982676078</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04556548350557276</v>
+        <v>0.04955058643415674</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5155151330.144687</v>
+        <v>3432739995.386473</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1387073617132655</v>
+        <v>0.178048732765066</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02352005353145913</v>
+        <v>0.02862591591234632</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>320</v>
+      </c>
+      <c r="J71" t="n">
+        <v>471</v>
+      </c>
+      <c r="K71" t="n">
+        <v>24.29613805538417</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2094429042.882034</v>
+        <v>1818115877.384167</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09761076866058824</v>
+        <v>0.1054185116650942</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03548938992406866</v>
+        <v>0.03378952059580171</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3010,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3196104781.649251</v>
+        <v>2818372699.66347</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08734730297121461</v>
+        <v>0.08644700485077102</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03286557747530919</v>
+        <v>0.04883167273096184</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>42</v>
+      </c>
+      <c r="J73" t="n">
+        <v>472</v>
+      </c>
+      <c r="K73" t="n">
+        <v>38.24432223797812</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3498492089.689689</v>
+        <v>3409017584.074669</v>
       </c>
       <c r="F74" t="n">
-        <v>0.17269307074174</v>
+        <v>0.1796581592660299</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02712259810760464</v>
+        <v>0.02973385608718065</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>139</v>
+      </c>
+      <c r="J74" t="n">
+        <v>472</v>
+      </c>
+      <c r="K74" t="n">
+        <v>33.11490031261754</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1780278916.19997</v>
+        <v>1830005414.604734</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1623462505594955</v>
+        <v>0.161519011395052</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02449202626506922</v>
+        <v>0.03762317317951343</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3916407337.285843</v>
+        <v>4399618433.937766</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1104433396247747</v>
+        <v>0.1247716162327756</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02444883215106552</v>
+        <v>0.02664581591301673</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>225</v>
+      </c>
+      <c r="J76" t="n">
+        <v>472</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1739120427.03312</v>
+        <v>1457434281.835801</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1699908145389106</v>
+        <v>0.1197468533909894</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02407908246541955</v>
+        <v>0.02159898605628121</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3649627296.450738</v>
+        <v>4532946135.637835</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1082480398844996</v>
+        <v>0.1114878003905109</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04160531269320789</v>
+        <v>0.05269809489949209</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>234</v>
+      </c>
+      <c r="J78" t="n">
+        <v>472</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1769900022.552791</v>
+        <v>1823035114.273439</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1672061637926204</v>
+        <v>0.1372929934299439</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02641894017403326</v>
+        <v>0.04075410288446341</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3978025628.000557</v>
+        <v>4679059022.897222</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1057167423278366</v>
+        <v>0.08587007403180792</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03068888044237343</v>
+        <v>0.03336479979751043</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>230</v>
+      </c>
+      <c r="J80" t="n">
+        <v>472</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4737588631.673963</v>
+        <v>4324711648.033685</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08861923644727351</v>
+        <v>0.126029438914831</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0258958816901479</v>
+        <v>0.02439585489619177</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>219</v>
+      </c>
+      <c r="J81" t="n">
+        <v>472</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4208718672.494558</v>
+        <v>5036919396.645674</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1799122293838314</v>
+        <v>0.150331148654574</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02717651887427429</v>
+        <v>0.01783535596859252</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>311</v>
+      </c>
+      <c r="J82" t="n">
+        <v>472</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2306699048.056713</v>
+        <v>2240978391.301548</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1309604757077794</v>
+        <v>0.134977455060354</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03869889277864796</v>
+        <v>0.03665331727676665</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2519053911.643283</v>
+        <v>2390165912.763773</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1169567892835163</v>
+        <v>0.07486754904121738</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04305468727067229</v>
+        <v>0.03507712626380648</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3522921487.772464</v>
+        <v>3688882725.649353</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1154100316549514</v>
+        <v>0.1179469348686762</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04224598693611402</v>
+        <v>0.05265785806840248</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2661893319.733654</v>
+        <v>2295506954.729062</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1559962421806697</v>
+        <v>0.151467175101066</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02742397218060356</v>
+        <v>0.02505283641980241</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>966100761.6509475</v>
+        <v>1112701354.188481</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1713152472389629</v>
+        <v>0.1433738301511924</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03793480853763131</v>
+        <v>0.0301031074671044</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3545,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3607329573.273992</v>
+        <v>3121277385.487818</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1118554085155152</v>
+        <v>0.1774272520382428</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03669947623715043</v>
+        <v>0.03159342784804571</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>63</v>
+      </c>
+      <c r="J88" t="n">
+        <v>472</v>
+      </c>
+      <c r="K88" t="n">
+        <v>40.12883611928614</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2964213320.360855</v>
+        <v>2551642953.60675</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1522400871911291</v>
+        <v>0.1275205759371533</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0398717195571107</v>
+        <v>0.03397751122864526</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2100840210.725376</v>
+        <v>1415457601.294625</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1063331440802492</v>
+        <v>0.08888175497314299</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05120246292887802</v>
+        <v>0.04305231743188402</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2057454187.578844</v>
+        <v>1872511096.05913</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1245723626798635</v>
+        <v>0.1188530301693724</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06159216782364185</v>
+        <v>0.0563924704946395</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2855748826.405738</v>
+        <v>1846897721.673562</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07499937181830153</v>
+        <v>0.0971870173601041</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04516909728676331</v>
+        <v>0.04006868068731569</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3978846663.322069</v>
+        <v>3505624618.816872</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1256566913593271</v>
+        <v>0.09451288088475006</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03518227451827567</v>
+        <v>0.0499358482850645</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>226</v>
+      </c>
+      <c r="J93" t="n">
+        <v>470</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1983703997.781523</v>
+        <v>2258789707.836232</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1505347439229197</v>
+        <v>0.115345581305374</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04077552382209275</v>
+        <v>0.02780507466961937</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3255848477.726428</v>
+        <v>2699465013.550467</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09734997195238138</v>
+        <v>0.1307946443521092</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03410584552397466</v>
+        <v>0.03544339054215429</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2161741056.569659</v>
+        <v>2212540112.769144</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1349333754689763</v>
+        <v>0.1106473801199289</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04089007625413292</v>
+        <v>0.03400470904060202</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5142180413.318563</v>
+        <v>3349024218.419251</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1523232836840764</v>
+        <v>0.173877891748401</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02883520440230941</v>
+        <v>0.02814147938372655</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>246</v>
+      </c>
+      <c r="J97" t="n">
+        <v>471</v>
+      </c>
+      <c r="K97" t="n">
+        <v>23.26272329070867</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3440476795.363928</v>
+        <v>3723207696.581595</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1093681271940588</v>
+        <v>0.1008806801660793</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02110978105220373</v>
+        <v>0.02360539518176109</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>117</v>
+      </c>
+      <c r="J98" t="n">
+        <v>472</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2689168312.179958</v>
+        <v>2301184269.47262</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1329253403005367</v>
+        <v>0.1466753757808129</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02638123191203565</v>
+        <v>0.02952000335234257</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3522165397.504596</v>
+        <v>4624983152.425735</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1506468202245632</v>
+        <v>0.1095457211273783</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01775510063586615</v>
+        <v>0.01709775986966714</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>221</v>
+      </c>
+      <c r="J100" t="n">
+        <v>471</v>
+      </c>
+      <c r="K100" t="n">
+        <v>31.6737174156296</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3217233136.918362</v>
+        <v>3430720010.180863</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2230300289035984</v>
+        <v>0.1430237299272972</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04753959987587111</v>
+        <v>0.05205571756888713</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
